--- a/Support Vector Machine/plot_infos_SVM_snv.xlsx
+++ b/Support Vector Machine/plot_infos_SVM_snv.xlsx
@@ -497,28 +497,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8803306513184099</v>
+        <v>0.8803455971160747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9402594889464058</v>
+        <v>0.9402674389889207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9003827251102235</v>
+        <v>0.9003264978541532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5541605818665906</v>
+        <v>0.5541011900173972</v>
       </c>
       <c r="G2" t="n">
-        <v>25.88717783536513</v>
+        <v>25.8844033916166</v>
       </c>
       <c r="H2" t="n">
-        <v>34.59325782310625</v>
+        <v>34.59109753736143</v>
       </c>
       <c r="I2" t="n">
-        <v>1.065391069940608</v>
+        <v>1.065387804516424</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.9674132371017894</v>
+        <v>-0.967385085186681</v>
       </c>
     </row>
     <row r="3">
@@ -533,28 +533,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7334725157294323</v>
+        <v>0.7334600689828357</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8570125242033937</v>
+        <v>0.8570054674833605</v>
       </c>
       <c r="E3" t="n">
-        <v>1.343713530558684</v>
+        <v>1.343744905684221</v>
       </c>
       <c r="F3" t="n">
-        <v>1.034507414249027</v>
+        <v>1.034531293126445</v>
       </c>
       <c r="G3" t="n">
-        <v>48.32620413827172</v>
+        <v>48.32731962134009</v>
       </c>
       <c r="H3" t="n">
-        <v>51.62629991298696</v>
+        <v>51.62750536459847</v>
       </c>
       <c r="I3" t="n">
-        <v>1.032982401719154</v>
+        <v>1.032986868166707</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5014988519373631</v>
+        <v>-0.5015754546980471</v>
       </c>
     </row>
     <row r="4">
@@ -569,28 +569,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6998626615724066</v>
+        <v>0.6998537242161332</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8479286156926509</v>
+        <v>0.8479258243899839</v>
       </c>
       <c r="E4" t="n">
-        <v>1.230769006222463</v>
+        <v>1.230787330732287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9801408157902527</v>
+        <v>0.9801530363346175</v>
       </c>
       <c r="G4" t="n">
-        <v>52.73051846685193</v>
+        <v>52.73117591895465</v>
       </c>
       <c r="H4" t="n">
-        <v>54.78479154177676</v>
+        <v>54.78560721429185</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8690690215629934</v>
+        <v>0.8690601118660353</v>
       </c>
       <c r="J4" t="n">
-        <v>1.750124544214472</v>
+        <v>1.750219356180542</v>
       </c>
     </row>
     <row r="5">
@@ -605,28 +605,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7145198067445095</v>
+        <v>0.7147216923100759</v>
       </c>
       <c r="D5" t="n">
-        <v>0.845840244170173</v>
+        <v>0.845952123766188</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2987706775779562</v>
+        <v>0.2986650167366291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07229038812794576</v>
+        <v>0.07203614282667244</v>
       </c>
       <c r="G5" t="n">
-        <v>17.11233387649972</v>
+        <v>17.05214979678195</v>
       </c>
       <c r="H5" t="n">
-        <v>53.43034655095272</v>
+        <v>53.41145080316804</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9815981149389335</v>
+        <v>0.9823367530696279</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03496453735582916</v>
+        <v>0.03422265787892975</v>
       </c>
     </row>
     <row r="6">
@@ -641,28 +641,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3667657601582546</v>
+        <v>0.3666564107336027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6365826865320044</v>
+        <v>0.6365098407590214</v>
       </c>
       <c r="E6" t="n">
-        <v>0.444971479629955</v>
+        <v>0.4450098977000913</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2464021424220026</v>
+        <v>0.2464597688206375</v>
       </c>
       <c r="G6" t="n">
-        <v>58.3274739312146</v>
+        <v>58.34111505556153</v>
       </c>
       <c r="H6" t="n">
-        <v>79.57601647743779</v>
+        <v>79.58288693346059</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7647974189178389</v>
+        <v>0.7647380427077389</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2698497092816751</v>
+        <v>0.2699175300701723</v>
       </c>
     </row>
     <row r="7">
@@ -677,28 +677,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7060588007672794</v>
+        <v>0.7059895322335761</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8441532650346099</v>
+        <v>0.8440246840543375</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2784471070486415</v>
+        <v>0.2784799137574325</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1776173680642819</v>
+        <v>0.1777348932259392</v>
       </c>
       <c r="G7" t="n">
-        <v>42.24993341154878</v>
+        <v>42.27788918134943</v>
       </c>
       <c r="H7" t="n">
-        <v>54.21634432832231</v>
+        <v>54.22273211176508</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9371908420282764</v>
+        <v>0.9380516873956877</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04078231179911795</v>
+        <v>0.04004302719950181</v>
       </c>
     </row>
     <row r="8">
@@ -713,28 +713,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9092510869957442</v>
+        <v>0.9089349918444056</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9541351292532873</v>
+        <v>0.9539642675183697</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09433179878550907</v>
+        <v>0.09449594347390443</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02561728989516892</v>
+        <v>0.02475677424468299</v>
       </c>
       <c r="G8" t="n">
-        <v>10.30241477209011</v>
+        <v>9.956344239826164</v>
       </c>
       <c r="H8" t="n">
-        <v>30.12456024645933</v>
+        <v>30.1769793312045</v>
       </c>
       <c r="I8" t="n">
-        <v>1.031186637188534</v>
+        <v>1.030680300904954</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.09745789036295971</v>
+        <v>-0.09563584612164799</v>
       </c>
     </row>
     <row r="9">
@@ -749,28 +749,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3583009190752652</v>
+        <v>0.3575627036804937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6303357449150052</v>
+        <v>0.6301498879048755</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2508436483813552</v>
+        <v>0.2509878931074921</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1603790450081949</v>
+        <v>0.1605333443212644</v>
       </c>
       <c r="G9" t="n">
-        <v>64.49907266489311</v>
+        <v>64.56112667329117</v>
       </c>
       <c r="H9" t="n">
-        <v>80.10612217082631</v>
+        <v>80.15218626584719</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7617855337219405</v>
+        <v>0.7605747739649659</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7895361993590986</v>
+        <v>0.7935840813035195</v>
       </c>
     </row>
     <row r="10">
@@ -785,28 +785,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6531876327227466</v>
+        <v>0.6527787757704895</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8229576492170416</v>
+        <v>0.8228352472769136</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1453854692872797</v>
+        <v>0.1454711414789391</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1094041210030602</v>
+        <v>0.1095819739374891</v>
       </c>
       <c r="G10" t="n">
-        <v>51.67904319102776</v>
+        <v>51.7630552866941</v>
       </c>
       <c r="H10" t="n">
-        <v>58.89077748487053</v>
+        <v>58.92548041632843</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8413780332789548</v>
+        <v>0.8407873958158331</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5157349419340442</v>
+        <v>0.5175436308950983</v>
       </c>
     </row>
     <row r="11">
@@ -821,28 +821,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3066808402341257</v>
+        <v>0.3066734816357521</v>
       </c>
       <c r="D11" t="n">
-        <v>0.68414465980754</v>
+        <v>0.6841457226781594</v>
       </c>
       <c r="E11" t="n">
-        <v>84.17327392152441</v>
+        <v>84.17372061022785</v>
       </c>
       <c r="F11" t="n">
-        <v>65.82911061187893</v>
+        <v>65.82941403978124</v>
       </c>
       <c r="G11" t="n">
-        <v>81.39418159123923</v>
+        <v>81.39455676364473</v>
       </c>
       <c r="H11" t="n">
-        <v>83.26578887909935</v>
+        <v>83.266230751983</v>
       </c>
       <c r="I11" t="n">
-        <v>2.420743773562319</v>
+        <v>2.420832657636722</v>
       </c>
       <c r="J11" t="n">
-        <v>-733.4348775871136</v>
+        <v>-733.480472768125</v>
       </c>
     </row>
     <row r="12">
@@ -857,28 +857,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2776118697110431</v>
+        <v>0.2776019442249618</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6419916736202856</v>
+        <v>0.6419864272914642</v>
       </c>
       <c r="E12" t="n">
-        <v>85.91973306166518</v>
+        <v>85.9203233206614</v>
       </c>
       <c r="F12" t="n">
-        <v>67.93977906558875</v>
+        <v>67.94036118541874</v>
       </c>
       <c r="G12" t="n">
-        <v>84.00391047566922</v>
+        <v>84.00463023576789</v>
       </c>
       <c r="H12" t="n">
-        <v>84.99341917401352</v>
+        <v>84.9940030693365</v>
       </c>
       <c r="I12" t="n">
-        <v>2.331768011137027</v>
+        <v>2.331830650016999</v>
       </c>
       <c r="J12" t="n">
-        <v>-687.0147008220134</v>
+        <v>-687.0465232421046</v>
       </c>
     </row>
     <row r="13">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4417153370841309</v>
+        <v>0.4417101623820751</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7922717869843836</v>
+        <v>0.7922728588326087</v>
       </c>
       <c r="E13" t="n">
-        <v>61.16569680586347</v>
+        <v>61.16598027552026</v>
       </c>
       <c r="F13" t="n">
-        <v>53.21503724687796</v>
+        <v>53.21522896573224</v>
       </c>
       <c r="G13" t="n">
-        <v>79.31980326702926</v>
+        <v>79.32008903403404</v>
       </c>
       <c r="H13" t="n">
-        <v>74.71844905482641</v>
+        <v>74.71879533410085</v>
       </c>
       <c r="I13" t="n">
-        <v>2.013559368984916</v>
+        <v>2.013607310378205</v>
       </c>
       <c r="J13" t="n">
-        <v>-533.4079055248203</v>
+        <v>-533.4319833474813</v>
       </c>
     </row>
     <row r="14">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7664911207494334</v>
+        <v>0.7665023519639267</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8819693383357142</v>
+        <v>0.8819758924143449</v>
       </c>
       <c r="E14" t="n">
-        <v>1.520509260384162</v>
+        <v>1.52047269352845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5867274404112565</v>
+        <v>0.5866645174814363</v>
       </c>
       <c r="G14" t="n">
-        <v>24.60487247123881</v>
+        <v>24.60223374913872</v>
       </c>
       <c r="H14" t="n">
-        <v>48.32275646634479</v>
+        <v>48.32159434829042</v>
       </c>
       <c r="I14" t="n">
-        <v>1.132779218724343</v>
+        <v>1.132782949118682</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.934596797924828</v>
+        <v>-1.934677823168608</v>
       </c>
     </row>
     <row r="15">
@@ -965,28 +965,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6617910689684239</v>
+        <v>0.661785037146844</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8182059091220881</v>
+        <v>0.8182022218247786</v>
       </c>
       <c r="E15" t="n">
-        <v>1.829910738200422</v>
+        <v>1.829927055992258</v>
       </c>
       <c r="F15" t="n">
-        <v>1.047230720481867</v>
+        <v>1.047247764198787</v>
       </c>
       <c r="G15" t="n">
-        <v>43.91643640760855</v>
+        <v>43.91715114916035</v>
       </c>
       <c r="H15" t="n">
-        <v>58.15573325404608</v>
+        <v>58.15625184390376</v>
       </c>
       <c r="I15" t="n">
-        <v>1.11128061182082</v>
+        <v>1.111281491793032</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.591739547310207</v>
+        <v>-1.591755002803323</v>
       </c>
     </row>
     <row r="16">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.754495238837712</v>
+        <v>0.7544959021431671</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8751426211474691</v>
+        <v>0.8751431978866244</v>
       </c>
       <c r="E16" t="n">
-        <v>1.188010812092505</v>
+        <v>1.188009207205942</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9229020996843443</v>
+        <v>0.9229067114792806</v>
       </c>
       <c r="G16" t="n">
-        <v>46.73816913133383</v>
+        <v>46.73840268465634</v>
       </c>
       <c r="H16" t="n">
-        <v>49.54843702502512</v>
+        <v>49.54837008992655</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8992551537351444</v>
+        <v>0.8992593967004274</v>
       </c>
       <c r="J16" t="n">
-        <v>1.455754129415157</v>
+        <v>1.455656934604308</v>
       </c>
     </row>
   </sheetData>
